--- a/doc/Twillo.xlsx
+++ b/doc/Twillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\C#\PROJETOS 4UCode\SMS_4Ucode\4Ucode-API-SMS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9E57FF-4A6D-4F98-938A-578F08AC4E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883BAD42-CEE6-4EBC-809C-3F1592B466CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Região</t>
   </si>
@@ -56,10 +56,6 @@
   <si>
     <t>envio em
 massa</t>
-  </si>
-  <si>
-    <t>Vantagens
-Twillo</t>
   </si>
   <si>
     <t>Maximo 100
@@ -137,7 +133,7 @@
     <t>Painel Twillo - Desatualizado</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -331,28 +327,28 @@
     <xf numFmtId="8" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
@@ -638,7 +634,7 @@
   <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,19 +652,19 @@
   <sheetData>
     <row r="1" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="I2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="2:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -682,16 +678,16 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -710,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -732,16 +728,16 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -756,17 +752,17 @@
         <v>5620</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="5">
-        <v>0</v>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -776,82 +772,82 @@
       <c r="E7" s="3"/>
     </row>
     <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>28</v>
+      <c r="G10" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>25</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>1.4975000000000001</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f>C11/B11</f>
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <f>D11*5</f>
         <v>0.29949999999999999</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="7"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
